--- a/release_note_R2A.xlsx
+++ b/release_note_R2A.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R2A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F841DCB-F3DE-4694-8F88-E3FEA85A7498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628DAEB7-7A7D-4912-8886-1131F4B735AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="44">
   <si>
     <t>Target</t>
   </si>
@@ -160,6 +160,22 @@
   </si>
   <si>
     <t>equipcheck.py 결과물 &gt; xlsx파일</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 잠금 방지 가능(하단 체크박스)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data 슬롯 13개 추가</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 프리셋 amount 0개일 때 불러오기 실패 버그 수정</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -622,8 +638,8 @@
   </sheetPr>
   <dimension ref="A1:D165"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1072,9 +1088,45 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="11">
+        <v>45268</v>
+      </c>
+      <c r="C36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="11">
+        <v>45275</v>
+      </c>
+      <c r="C37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="11">
+        <v>45275</v>
+      </c>
+      <c r="C38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+    </row>
     <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/release_note_R2A.xlsx
+++ b/release_note_R2A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R2A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628DAEB7-7A7D-4912-8886-1131F4B735AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2F5668-B214-40B1-A6AD-B2077120F952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="release_note_R2A" sheetId="1" r:id="rId1"/>
@@ -70,9 +70,6 @@
     <t>additems 명령어 사용 시, 입력 누락되는 버그 수정</t>
   </si>
   <si>
-    <t>아이템 이름 검색 후 결과 팝업에서 아이템 생성</t>
-  </si>
-  <si>
     <t>additems txt파일 생성 안되는 버그 수정</t>
   </si>
   <si>
@@ -176,6 +173,10 @@
   </si>
   <si>
     <t>아이템 프리셋 amount 0개일 때 불러오기 실패 버그 수정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>프리셋 로드 시, 현재 값 자동 저장 기능 추가</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -636,10 +637,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D165"/>
+  <dimension ref="A1:D164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -753,7 +754,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="10">
-        <v>45222</v>
+        <v>45224</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>12</v>
@@ -777,7 +778,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="10">
-        <v>45224</v>
+        <v>45230</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>14</v>
@@ -789,12 +790,14 @@
         <v>4</v>
       </c>
       <c r="B12" s="10">
-        <v>45230</v>
-      </c>
-      <c r="C12" s="6" t="s">
+        <v>45231</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
@@ -804,10 +807,10 @@
         <v>45231</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -817,11 +820,11 @@
       <c r="B14" s="10">
         <v>45231</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -829,14 +832,12 @@
         <v>4</v>
       </c>
       <c r="B15" s="10">
-        <v>45231</v>
+        <v>45232</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
@@ -848,20 +849,22 @@
       <c r="C16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="10">
-        <v>45232</v>
+        <v>45233</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -869,21 +872,19 @@
         <v>4</v>
       </c>
       <c r="B18" s="10">
-        <v>45233</v>
+        <v>45236</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="10">
-        <v>45236</v>
+        <v>45237</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>23</v>
@@ -907,25 +908,27 @@
         <v>4</v>
       </c>
       <c r="B21" s="10">
-        <v>45237</v>
-      </c>
-      <c r="C21" s="6" t="s">
+        <v>45245</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="7"/>
+      <c r="D21" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="10">
-        <v>45245</v>
-      </c>
-      <c r="C22" s="8" t="s">
+        <v>45247</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -938,9 +941,7 @@
       <c r="C23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
@@ -959,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="10">
-        <v>45247</v>
+        <v>45250</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>29</v>
@@ -974,7 +975,7 @@
         <v>45250</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D26" s="7"/>
     </row>
@@ -986,7 +987,7 @@
         <v>45250</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D27" s="7"/>
     </row>
@@ -995,7 +996,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="10">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>31</v>
@@ -1012,7 +1013,9 @@
       <c r="C29" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
@@ -1021,11 +1024,11 @@
       <c r="B30" s="10">
         <v>45252</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>33</v>
+      <c r="C30" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1036,75 +1039,72 @@
         <v>45252</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D31" s="9"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="10">
-        <v>45252</v>
-      </c>
-      <c r="C32" s="8" t="s">
+        <v>45253</v>
+      </c>
+      <c r="C32" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="9"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="11">
         <v>45253</v>
       </c>
       <c r="C33" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="7"/>
     </row>
     <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B34" s="11">
-        <v>45253</v>
+        <v>45254</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
-        <v>4</v>
+      <c r="A35" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="B35" s="11">
-        <v>45254</v>
+        <v>45268</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" s="11">
-        <v>45268</v>
+        <v>45275</v>
       </c>
       <c r="C36" t="s">
         <v>41</v>
       </c>
-      <c r="D36" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" s="11">
         <v>45275</v>
@@ -1112,13 +1112,16 @@
       <c r="C37" t="s">
         <v>42</v>
       </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38" s="11">
-        <v>45275</v>
+        <v>45323</v>
       </c>
       <c r="C38" t="s">
         <v>43</v>
@@ -1252,11 +1255,10 @@
     <row r="161" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="162" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="163" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" spans="1:3" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="14"/>
-      <c r="B165" s="12"/>
-      <c r="C165" s="2"/>
+    <row r="164" spans="1:3" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="14"/>
+      <c r="B164" s="12"/>
+      <c r="C164" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/release_note_R2A.xlsx
+++ b/release_note_R2A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R2A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2F5668-B214-40B1-A6AD-B2077120F952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0569BD-2243-4958-A9E3-B41CA3F222A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="46">
   <si>
     <t>Target</t>
   </si>
@@ -177,6 +177,14 @@
   </si>
   <si>
     <t>프리셋 로드 시, 현재 값 자동 저장 기능 추가</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 텍스트 파일 선택창 txt파일 필터 추가</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -637,509 +645,677 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D164"/>
+  <dimension ref="A1:E164"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="120.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="120.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="10">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <f>ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="10">
         <v>45121</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="10">
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <f t="shared" ref="A3:A39" si="0">ROW()-1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="10">
         <v>45173</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="10">
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="10">
         <v>45218</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10">
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="10">
         <v>45218</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="10">
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10">
         <v>45218</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="10">
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10">
         <v>45218</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="10">
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="10">
         <v>45222</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="10">
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="10">
         <v>45224</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="10">
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="10">
         <v>45224</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="10">
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="10">
         <v>45230</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="10">
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="10">
         <v>45231</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="10">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="10">
         <v>45231</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="E13" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="10">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="10">
         <v>45231</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="E14" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="10">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="10">
         <v>45232</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="10">
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="10">
         <v>45232</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="E16" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="10">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="10">
         <v>45233</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="E17" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="10">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="10">
         <v>45236</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="10">
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="10">
         <v>45237</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="10">
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="10">
         <v>45237</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="10">
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="10">
         <v>45245</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="D21" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="E21" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="10">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="10">
         <v>45247</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="E22" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="10">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="10">
         <v>45247</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="10">
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="10">
         <v>45247</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="7"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="10">
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="10">
         <v>45250</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="D25" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="7"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="10">
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="10">
         <v>45250</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="10">
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="10">
         <v>45250</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="D27" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="10">
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="10">
         <v>45252</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="D28" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="7"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="10">
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="10">
         <v>45252</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="E29" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="10">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="10">
         <v>45252</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="D30" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="E30" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="10">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="10">
         <v>45252</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="D31" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="9"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="10">
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="10">
         <v>45253</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="7"/>
-    </row>
-    <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="11">
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="11">
         <v>45253</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="11">
+    <row r="34" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="11">
         <v>45254</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="13" t="s">
+    <row r="35" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="11">
+      <c r="C35" s="11">
         <v>45268</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>40</v>
       </c>
-      <c r="D35" t="b">
+      <c r="E35" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="13" t="s">
+    <row r="36" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="11">
+      <c r="C36" s="11">
         <v>45275</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="13" t="s">
+    <row r="37" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="11">
+      <c r="C37" s="11">
         <v>45275</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>42</v>
       </c>
-      <c r="D37" t="b">
+      <c r="E37" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="13" t="s">
+    <row r="38" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="11">
+      <c r="C38" s="11">
         <v>45323</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>43</v>
       </c>
-      <c r="D38" t="b">
+      <c r="E38" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="11">
+        <v>45327</v>
+      </c>
+      <c r="D39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="49" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="50" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="51" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1252,13 +1428,13 @@
     <row r="158" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="159" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="160" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" spans="1:3" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="14"/>
-      <c r="B164" s="12"/>
-      <c r="C164" s="2"/>
+    <row r="161" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" spans="2:4" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B164" s="14"/>
+      <c r="C164" s="12"/>
+      <c r="D164" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/release_note_R2A.xlsx
+++ b/release_note_R2A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R2A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0569BD-2243-4958-A9E3-B41CA3F222A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB64154-F50A-4C33-A666-9F14FEEC71FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30015" yWindow="1425" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="release_note_R2A" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="49">
   <si>
     <t>Target</t>
   </si>
@@ -185,6 +185,18 @@
   </si>
   <si>
     <t>Index</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>알파빌드 3.0.0 커맨드 인풋박스 확인 관련 수정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>패치노트 오늘은 그만보기 미적용 버그 수정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화 수치 입력 시 아이템 검색 불가 버그 수정</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -648,7 +660,7 @@
   <dimension ref="A1:E164"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="E41" sqref="E41:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1307,9 +1319,58 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <f>ROW()-1</f>
+        <v>39</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="11">
+        <v>45341</v>
+      </c>
+      <c r="D40" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="11">
+        <v>45348</v>
+      </c>
+      <c r="D41" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="11">
+        <v>45348</v>
+      </c>
+      <c r="D42" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+    </row>
     <row r="43" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/release_note_R2A.xlsx
+++ b/release_note_R2A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R2A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB64154-F50A-4C33-A666-9F14FEEC71FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F9EA51-B374-42D4-A1E7-AE65DDE0BD43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30015" yWindow="1425" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="release_note_R2A" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="50">
   <si>
     <t>Target</t>
   </si>
@@ -197,6 +197,10 @@
   </si>
   <si>
     <t>강화 수치 입력 시 아이템 검색 불가 버그 수정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 검색 팝업 '항상 위' 설정 개선</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -660,7 +664,7 @@
   <dimension ref="A1:E164"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41:E42"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1371,7 +1375,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="11">
+        <v>45357</v>
+      </c>
+      <c r="D43" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" t="b">
+        <v>1</v>
+      </c>
+    </row>
     <row r="44" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
